--- a/data/trans_orig/P33_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P33_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>148553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128240</v>
+        <v>128619</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>170386</v>
+        <v>170354</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2574066721170726</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2222087000767867</v>
+        <v>0.2228667096713465</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2952377602003933</v>
+        <v>0.2951826775141128</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>324</v>
@@ -765,19 +765,19 @@
         <v>336366</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>307736</v>
+        <v>306340</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>366511</v>
+        <v>365817</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3660629482811635</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3349056099379393</v>
+        <v>0.3333866080914298</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.39887016119014</v>
+        <v>0.398114136885257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>472</v>
@@ -786,19 +786,19 @@
         <v>484918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>451449</v>
+        <v>450931</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>523741</v>
+        <v>519250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3241461818500354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3017735387790325</v>
+        <v>0.3014272366036103</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3500972619420182</v>
+        <v>0.3470952107159629</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>428560</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>406727</v>
+        <v>406759</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>448873</v>
+        <v>448494</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7425933278829274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7047622397996067</v>
+        <v>0.7048173224858872</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7777912999232134</v>
+        <v>0.7771332903286535</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>558</v>
@@ -836,19 +836,19 @@
         <v>582508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>552363</v>
+        <v>553057</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>611138</v>
+        <v>612534</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6339370517188365</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.60112983880986</v>
+        <v>0.601885863114743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6650943900620608</v>
+        <v>0.6666133919085703</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>977</v>
@@ -857,19 +857,19 @@
         <v>1011068</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>972245</v>
+        <v>976736</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1044537</v>
+        <v>1045055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6758538181499647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6499027380579818</v>
+        <v>0.6529047892840368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6982264612209674</v>
+        <v>0.6985727633963896</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>203953</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179057</v>
+        <v>177798</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>230843</v>
+        <v>228786</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1907838420224713</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1674951034552402</v>
+        <v>0.166317428875517</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2159369813868356</v>
+        <v>0.214013035698547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>240</v>
@@ -982,19 +982,19 @@
         <v>250883</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>221721</v>
+        <v>224229</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>278427</v>
+        <v>279137</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2381359802891321</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2104558680591029</v>
+        <v>0.2128361550263742</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2642811766408985</v>
+        <v>0.2649547259912257</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>437</v>
@@ -1003,19 +1003,19 @@
         <v>454836</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>416260</v>
+        <v>419065</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>493496</v>
+        <v>497803</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.214287011579152</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1961126237550164</v>
+        <v>0.1974344212348327</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2325008522603984</v>
+        <v>0.234529935792128</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>865075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>838185</v>
+        <v>840242</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>889971</v>
+        <v>891230</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8092161579775287</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7840630186131644</v>
+        <v>0.7859869643014523</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8325048965447597</v>
+        <v>0.8336825711244827</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>784</v>
@@ -1053,19 +1053,19 @@
         <v>802644</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>775100</v>
+        <v>774390</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>831806</v>
+        <v>829298</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7618640197108679</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7357188233591014</v>
+        <v>0.7350452740087743</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.789544131940897</v>
+        <v>0.7871638449736258</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1634</v>
@@ -1074,19 +1074,19 @@
         <v>1667719</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1629059</v>
+        <v>1624752</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1706295</v>
+        <v>1703490</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.785712988420848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7674991477396016</v>
+        <v>0.7654700642078727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8038873762449836</v>
+        <v>0.8025655787651677</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>158806</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136995</v>
+        <v>133967</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>184850</v>
+        <v>184766</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1439931041573439</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1242164290182157</v>
+        <v>0.1214708025985089</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.167607759151789</v>
+        <v>0.1675317231596185</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>145</v>
@@ -1199,19 +1199,19 @@
         <v>147633</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>127074</v>
+        <v>127782</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>171070</v>
+        <v>172397</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1495630773153892</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1287352796753771</v>
+        <v>0.1294531054396403</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1733073270616743</v>
+        <v>0.1746513232165769</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>300</v>
@@ -1220,19 +1220,19 @@
         <v>306439</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>275271</v>
+        <v>273871</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>340203</v>
+        <v>339072</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1466238067241052</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1317109142462555</v>
+        <v>0.1310410067592973</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1627789764407294</v>
+        <v>0.1622381704770702</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>944068</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>918024</v>
+        <v>918108</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>965879</v>
+        <v>968907</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8560068958426561</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8323922408482111</v>
+        <v>0.8324682768403816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8757835709817843</v>
+        <v>0.8785291974014913</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>830</v>
@@ -1270,19 +1270,19 @@
         <v>839460</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>816023</v>
+        <v>814696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>860019</v>
+        <v>859311</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8504369226846108</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.826692672938325</v>
+        <v>0.8253486767834232</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8712647203246227</v>
+        <v>0.8705468945603602</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1758</v>
@@ -1291,19 +1291,19 @@
         <v>1783528</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1749764</v>
+        <v>1750895</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1814696</v>
+        <v>1816096</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8533761932758948</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8372210235592703</v>
+        <v>0.8377618295229297</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8682890857537444</v>
+        <v>0.8689589932407026</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>75037</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>60388</v>
+        <v>59729</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90821</v>
+        <v>92300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1725487614803715</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1388619176574031</v>
+        <v>0.1373458027019047</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2088431017861975</v>
+        <v>0.2122429380276393</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>54</v>
@@ -1416,19 +1416,19 @@
         <v>56254</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>43748</v>
+        <v>43067</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>72097</v>
+        <v>71200</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1682355728168148</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1308358396267503</v>
+        <v>0.1287989771664791</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2156188056513755</v>
+        <v>0.2129340787819341</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>127</v>
@@ -1437,19 +1437,19 @@
         <v>131291</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111138</v>
+        <v>110408</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>152900</v>
+        <v>153592</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1706739270887081</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1444759150996668</v>
+        <v>0.1435260343707512</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1987646130426345</v>
+        <v>0.1996649518706618</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>359840</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>344056</v>
+        <v>342577</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>374489</v>
+        <v>375148</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8274512385196284</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7911568982138025</v>
+        <v>0.7877570619723608</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8611380823425969</v>
+        <v>0.8626541972980953</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>278</v>
@@ -1487,19 +1487,19 @@
         <v>278120</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>262277</v>
+        <v>263174</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>290626</v>
+        <v>291307</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8317644271831852</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7843811943486242</v>
+        <v>0.7870659212180658</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8691641603732497</v>
+        <v>0.871201022833521</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>628</v>
@@ -1508,19 +1508,19 @@
         <v>637960</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>616351</v>
+        <v>615659</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>658113</v>
+        <v>658843</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8293260729112919</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8012353869573656</v>
+        <v>0.8003350481293382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8555240849003337</v>
+        <v>0.8564739656292488</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>586350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>545559</v>
+        <v>544674</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>632602</v>
+        <v>637670</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1841613068104804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1713497807488778</v>
+        <v>0.1710716548106834</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1986882560737746</v>
+        <v>0.2002802445817618</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>763</v>
@@ -1633,19 +1633,19 @@
         <v>791135</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>744492</v>
+        <v>735779</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>843828</v>
+        <v>838884</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2401840707981111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2260237589706403</v>
+        <v>0.2233784892847924</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2561814743912442</v>
+        <v>0.254680579401869</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1336</v>
@@ -1654,19 +1654,19 @@
         <v>1377484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1311098</v>
+        <v>1310539</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1444456</v>
+        <v>1446357</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2126482542169374</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2023998949525556</v>
+        <v>0.2023136368490883</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2229869417555801</v>
+        <v>0.2232804603272743</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2597541</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2551289</v>
+        <v>2546221</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2638332</v>
+        <v>2639217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8158386931895196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8013117439262256</v>
+        <v>0.7997197554182383</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8286502192511221</v>
+        <v>0.8289283451893167</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2450</v>
@@ -1704,19 +1704,19 @@
         <v>2502733</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2450040</v>
+        <v>2454984</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2549376</v>
+        <v>2558089</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7598159292018889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7438185256087555</v>
+        <v>0.7453194205981309</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7739762410293595</v>
+        <v>0.7766215107152078</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4997</v>
@@ -1725,19 +1725,19 @@
         <v>5100275</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5033303</v>
+        <v>5031402</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5166661</v>
+        <v>5167220</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7873517457830626</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7770130582444199</v>
+        <v>0.7767195396727257</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7976001050474445</v>
+        <v>0.7976863631509117</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>333209</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>303086</v>
+        <v>302748</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>365328</v>
+        <v>364841</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3199137503123674</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2909925713491862</v>
+        <v>0.2906687115158305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3507517755017193</v>
+        <v>0.3502839639269993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>388</v>
@@ -2090,19 +2090,19 @@
         <v>424702</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>389840</v>
+        <v>389333</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>458289</v>
+        <v>457468</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3795557467963682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3483991381727224</v>
+        <v>0.3479465825451223</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4095720065870521</v>
+        <v>0.4088387638805591</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>696</v>
@@ -2111,19 +2111,19 @@
         <v>757911</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>711179</v>
+        <v>710025</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>800007</v>
+        <v>803828</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.35080292561619</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3291729168551537</v>
+        <v>0.3286387073179365</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3702873578603497</v>
+        <v>0.3720559183211453</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>708349</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676230</v>
+        <v>676717</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>738472</v>
+        <v>738810</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6800862496876326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6492482244982807</v>
+        <v>0.6497160360730011</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7090074286508136</v>
+        <v>0.7093312884841699</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>642</v>
@@ -2161,19 +2161,19 @@
         <v>694244</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>660657</v>
+        <v>661478</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>729106</v>
+        <v>729613</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6204442532036318</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5904279934129479</v>
+        <v>0.5911612361194408</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6516008618272776</v>
+        <v>0.6520534174548777</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1310</v>
@@ -2182,19 +2182,19 @@
         <v>1402593</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1360497</v>
+        <v>1356676</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1449325</v>
+        <v>1450479</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.64919707438381</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6297126421396503</v>
+        <v>0.6279440816788546</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6708270831448462</v>
+        <v>0.6713612926820633</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>228231</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>199287</v>
+        <v>201330</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>254737</v>
+        <v>256071</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2347804817077814</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2050059586317178</v>
+        <v>0.2071072262636985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2620469978695255</v>
+        <v>0.2634192201698954</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>329</v>
@@ -2307,19 +2307,19 @@
         <v>348932</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>316247</v>
+        <v>315731</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>379014</v>
+        <v>379704</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3191338862926122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2892398056118985</v>
+        <v>0.2887680439400351</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3466465739630668</v>
+        <v>0.3472776588313066</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>543</v>
@@ -2328,19 +2328,19 @@
         <v>577163</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>534659</v>
+        <v>536469</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>620618</v>
+        <v>619937</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2794334248566622</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2588549864076161</v>
+        <v>0.2597311086701365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3004720928003307</v>
+        <v>0.3001424838595779</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>743874</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>717368</v>
+        <v>716034</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>772818</v>
+        <v>770775</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7652195182922186</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7379530021304747</v>
+        <v>0.7365807798301046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7949940413682822</v>
+        <v>0.7928927737363017</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>690</v>
@@ -2378,19 +2378,19 @@
         <v>744440</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>714358</v>
+        <v>713668</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>777125</v>
+        <v>777641</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6808661137073878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6533534260369331</v>
+        <v>0.6527223411686929</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7107601943881016</v>
+        <v>0.7112319560599648</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1395</v>
@@ -2399,19 +2399,19 @@
         <v>1488314</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1444859</v>
+        <v>1445540</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1530818</v>
+        <v>1529008</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7205665751433379</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6995279071996692</v>
+        <v>0.699857516140422</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7411450135923836</v>
+        <v>0.7402688913298634</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>190179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165958</v>
+        <v>166205</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>216729</v>
+        <v>215584</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2155980166734204</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1881400585655351</v>
+        <v>0.188420213215641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.245696894032121</v>
+        <v>0.2443986276050472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -2524,19 +2524,19 @@
         <v>243877</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>218085</v>
+        <v>217748</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>271603</v>
+        <v>271339</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2795325451437884</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2499699795647553</v>
+        <v>0.2495829643250611</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3113124105896777</v>
+        <v>0.311009487847684</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>411</v>
@@ -2545,19 +2545,19 @@
         <v>434056</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>399555</v>
+        <v>397874</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>471673</v>
+        <v>468875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2473894014130076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.227725742331989</v>
+        <v>0.2267677300322374</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2688291733201521</v>
+        <v>0.2672345232656712</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>691920</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>665370</v>
+        <v>666515</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>716141</v>
+        <v>715894</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7844019833265796</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7543031059678791</v>
+        <v>0.7556013723949528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8118599414344648</v>
+        <v>0.811579786784359</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>589</v>
@@ -2595,19 +2595,19 @@
         <v>628569</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>600843</v>
+        <v>601107</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>654361</v>
+        <v>654698</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7204674548562117</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6886875894103223</v>
+        <v>0.688990512152316</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7500300204352448</v>
+        <v>0.7504170356749389</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1234</v>
@@ -2616,19 +2616,19 @@
         <v>1320489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1282872</v>
+        <v>1285670</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1354990</v>
+        <v>1356671</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7526105985869924</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.731170826679848</v>
+        <v>0.7327654767343288</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7722742576680111</v>
+        <v>0.7732322699677624</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>129634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110033</v>
+        <v>109977</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152338</v>
+        <v>152046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2586894414027605</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2195759706968158</v>
+        <v>0.2194639168940765</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3039954239591716</v>
+        <v>0.3034133447082205</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>118</v>
@@ -2741,19 +2741,19 @@
         <v>128974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>108266</v>
+        <v>110383</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>150642</v>
+        <v>149316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2874996707368034</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2413383549187234</v>
+        <v>0.2460563484239378</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3357995560481331</v>
+        <v>0.33284470811022</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>236</v>
@@ -2762,19 +2762,19 @@
         <v>258608</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>232429</v>
+        <v>228719</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>288212</v>
+        <v>288895</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2722980773971918</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2447331558736749</v>
+        <v>0.2408269647923118</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.303468610533016</v>
+        <v>0.3041877788596647</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>371484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>348780</v>
+        <v>349072</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>391085</v>
+        <v>391141</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7413105585972395</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6960045760408282</v>
+        <v>0.6965866552917794</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.780424029303184</v>
+        <v>0.7805360831059235</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>290</v>
@@ -2812,19 +2812,19 @@
         <v>319633</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>297965</v>
+        <v>299291</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>340341</v>
+        <v>338224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7125003292631966</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6642004439518671</v>
+        <v>0.66715529188978</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.758661645081277</v>
+        <v>0.7539436515760622</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>632</v>
@@ -2833,19 +2833,19 @@
         <v>691117</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>661513</v>
+        <v>660830</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>717296</v>
+        <v>721006</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7277019226028082</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6965313894669839</v>
+        <v>0.6958122211403353</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7552668441263252</v>
+        <v>0.7591730352076882</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>881253</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>828729</v>
+        <v>827287</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>934464</v>
+        <v>937361</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2594300444621817</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2439676369929808</v>
+        <v>0.2435431713967816</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2750947596760177</v>
+        <v>0.2759476364890777</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1064</v>
@@ -2958,19 +2958,19 @@
         <v>1146486</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1088114</v>
+        <v>1097275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1202283</v>
+        <v>1205724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3244736848553026</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3079534036817826</v>
+        <v>0.3105462378248118</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3402652712143381</v>
+        <v>0.341238862298873</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1886</v>
@@ -2979,19 +2979,19 @@
         <v>2027739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1948237</v>
+        <v>1954093</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2100457</v>
+        <v>2105123</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2925923760357882</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2811207000699301</v>
+        <v>0.2819656955144187</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3030852267666297</v>
+        <v>0.3037585269044462</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2515627</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2462416</v>
+        <v>2459519</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2568151</v>
+        <v>2569593</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7405699555378182</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7249052403239823</v>
+        <v>0.7240523635109224</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7560323630070191</v>
+        <v>0.7564568286032184</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2211</v>
@@ -3029,19 +3029,19 @@
         <v>2386885</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2331088</v>
+        <v>2327647</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2445257</v>
+        <v>2436096</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6755263151446974</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.659734728785662</v>
+        <v>0.6587611377011271</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6920465963182174</v>
+        <v>0.6894537621751883</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4571</v>
@@ -3050,19 +3050,19 @@
         <v>4902512</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4829794</v>
+        <v>4825128</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4982014</v>
+        <v>4976158</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7074076239642118</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6969147732333703</v>
+        <v>0.6962414730955538</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7188792999300699</v>
+        <v>0.7180343044855814</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>254368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>226030</v>
+        <v>228930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>284980</v>
+        <v>284542</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2260466129005623</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2008634102742953</v>
+        <v>0.2034405231066528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2532497342526875</v>
+        <v>0.2528608189639968</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>348</v>
@@ -3415,19 +3415,19 @@
         <v>385710</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>349836</v>
+        <v>353062</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>422817</v>
+        <v>418139</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3075110676464166</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2789105216430919</v>
+        <v>0.2814822164735779</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3370947789520236</v>
+        <v>0.3333652453075664</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>587</v>
@@ -3436,19 +3436,19 @@
         <v>640078</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>596420</v>
+        <v>595908</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>684682</v>
+        <v>686658</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2689870402300673</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2506402336912698</v>
+        <v>0.2504249088020901</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2877312696040139</v>
+        <v>0.2885617431786597</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>870924</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>840312</v>
+        <v>840750</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>899262</v>
+        <v>896362</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7739533870994376</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7467502657473124</v>
+        <v>0.7471391810360033</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7991365897257047</v>
+        <v>0.7965594768933472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>835</v>
@@ -3486,19 +3486,19 @@
         <v>868586</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>831479</v>
+        <v>836157</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>904460</v>
+        <v>901234</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6924889323535834</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6629052210479764</v>
+        <v>0.6666347546924336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7210894783569081</v>
+        <v>0.7185177835264221</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1660</v>
@@ -3507,19 +3507,19 @@
         <v>1739510</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1694906</v>
+        <v>1692930</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1783168</v>
+        <v>1783680</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7310129597699326</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7122687303959861</v>
+        <v>0.7114382568213402</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7493597663087302</v>
+        <v>0.7495750911979098</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>203603</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>179644</v>
+        <v>177581</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>230255</v>
+        <v>229734</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2246058721269363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1981757048246497</v>
+        <v>0.1959002756618225</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.254007398950252</v>
+        <v>0.2534327647374593</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>257</v>
@@ -3632,19 +3632,19 @@
         <v>277550</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>249922</v>
+        <v>249590</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>306928</v>
+        <v>309830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.276586832436085</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2490546197488093</v>
+        <v>0.2487239350073079</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3058625301125747</v>
+        <v>0.3087547495111204</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>454</v>
@@ -3653,19 +3653,19 @@
         <v>481152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>441857</v>
+        <v>441575</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>524114</v>
+        <v>519945</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2519162228796348</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2313422506829241</v>
+        <v>0.2311948135708679</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2744092944832531</v>
+        <v>0.2722270294228878</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>702885</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>676233</v>
+        <v>676754</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>726844</v>
+        <v>728907</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7753941278730637</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7459926010497481</v>
+        <v>0.7465672352625402</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8018242951753504</v>
+        <v>0.8040997243381768</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>691</v>
@@ -3703,19 +3703,19 @@
         <v>725932</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>696554</v>
+        <v>693652</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>753560</v>
+        <v>753892</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.723413167563915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6941374698874249</v>
+        <v>0.6912452504888795</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7509453802511906</v>
+        <v>0.7512760649926916</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1373</v>
@@ -3724,19 +3724,19 @@
         <v>1428818</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1385856</v>
+        <v>1390025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1468113</v>
+        <v>1468395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7480837771203652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7255907055167472</v>
+        <v>0.7277729705771122</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.768657749317076</v>
+        <v>0.7688051864291324</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>176595</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>153697</v>
+        <v>154240</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>199458</v>
+        <v>203133</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2143773853743397</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1865805367674593</v>
+        <v>0.1872397649098435</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2421312074123845</v>
+        <v>0.246592637215222</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>184</v>
@@ -3849,19 +3849,19 @@
         <v>201917</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>177703</v>
+        <v>178992</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225754</v>
+        <v>228200</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2629657623779239</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2314297743052911</v>
+        <v>0.233108651481674</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2940088104592915</v>
+        <v>0.2971946658813948</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>351</v>
@@ -3870,19 +3870,19 @@
         <v>378513</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>346720</v>
+        <v>345415</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>418198</v>
+        <v>413416</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2378181378748824</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2178425513110603</v>
+        <v>0.2170227824679455</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2627519684777948</v>
+        <v>0.2597475606554744</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>647164</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624301</v>
+        <v>620626</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670062</v>
+        <v>669519</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7856226146256603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7578687925876155</v>
+        <v>0.7534073627847779</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8134194632325407</v>
+        <v>0.8127602350901566</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>541</v>
@@ -3920,19 +3920,19 @@
         <v>565930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>542093</v>
+        <v>539647</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>590144</v>
+        <v>588855</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7370342376220762</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7059911895407087</v>
+        <v>0.702805334118606</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7685702256947098</v>
+        <v>0.7668913485183261</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1161</v>
@@ -3941,19 +3941,19 @@
         <v>1213094</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1173409</v>
+        <v>1178191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1244887</v>
+        <v>1246192</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7621818621251176</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7372480315222051</v>
+        <v>0.7402524393445253</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7821574486889394</v>
+        <v>0.7829772175320544</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>144461</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>126007</v>
+        <v>124146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>168341</v>
+        <v>166533</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2860743571169808</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2495304025376696</v>
+        <v>0.2458444515508266</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3333640662333426</v>
+        <v>0.3297832398652246</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>124</v>
@@ -4066,19 +4066,19 @@
         <v>137170</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>117624</v>
+        <v>116123</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>157410</v>
+        <v>160323</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2818779728536956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2417131528101771</v>
+        <v>0.2386272735293096</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3234704874272606</v>
+        <v>0.3294570845591251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -4087,19 +4087,19 @@
         <v>281630</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>253159</v>
+        <v>253943</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>311344</v>
+        <v>311754</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2840149901864893</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2553025590093963</v>
+        <v>0.2560929257740365</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3139803005239507</v>
+        <v>0.3143939640733034</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>360515</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>336635</v>
+        <v>338443</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>378969</v>
+        <v>380830</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7139256428830192</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6666359337666574</v>
+        <v>0.6702167601347754</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7504695974623303</v>
+        <v>0.7541555484491734</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>329</v>
@@ -4137,19 +4137,19 @@
         <v>349458</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>329218</v>
+        <v>326305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>369004</v>
+        <v>370505</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7181220271463044</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.676529512572739</v>
+        <v>0.6705429154408749</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7582868471898226</v>
+        <v>0.7613727264706904</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>662</v>
@@ -4158,19 +4158,19 @@
         <v>709974</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>680260</v>
+        <v>679850</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>738445</v>
+        <v>737661</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7159850098135107</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6860196994760492</v>
+        <v>0.6856060359266966</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7446974409906036</v>
+        <v>0.7439070742259635</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>779027</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>730379</v>
+        <v>735150</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>827755</v>
+        <v>828762</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2318177316245164</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.21734121035739</v>
+        <v>0.2187610553669063</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2463178100586591</v>
+        <v>0.2466175829553665</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>913</v>
@@ -4283,19 +4283,19 @@
         <v>1002347</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>950048</v>
+        <v>952589</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1058431</v>
+        <v>1060839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2853857572198236</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2704951918933468</v>
+        <v>0.2712187148409499</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.301353816703781</v>
+        <v>0.3020395208083365</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1652</v>
@@ -4304,19 +4304,19 @@
         <v>1781374</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1711111</v>
+        <v>1714156</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1853068</v>
+        <v>1856724</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2591930807557408</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.248969623752195</v>
+        <v>0.2494127406091682</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2696247209875543</v>
+        <v>0.2701566027698167</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2581489</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2532761</v>
+        <v>2531754</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2630137</v>
+        <v>2625366</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7681822683754836</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.753682189941341</v>
+        <v>0.7533824170446335</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.78265878964261</v>
+        <v>0.7812389446330936</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2396</v>
@@ -4354,19 +4354,19 @@
         <v>2509906</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2453822</v>
+        <v>2451414</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2562205</v>
+        <v>2559664</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7146142427801764</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.698646183296219</v>
+        <v>0.6979604791916636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7295048081066533</v>
+        <v>0.7287812851590502</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4856</v>
@@ -4375,19 +4375,19 @@
         <v>5091395</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5019701</v>
+        <v>5016045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5161658</v>
+        <v>5158613</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7408069192442592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7303752790124456</v>
+        <v>0.729843397230183</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.751030376247805</v>
+        <v>0.7505872593908317</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>133946</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>113245</v>
+        <v>116024</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>155648</v>
+        <v>157619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2803586466255624</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2370297403939834</v>
+        <v>0.2428470826542625</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3257830404100469</v>
+        <v>0.3299083112090309</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>324</v>
@@ -4740,19 +4740,19 @@
         <v>209887</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>189861</v>
+        <v>190425</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>230997</v>
+        <v>230712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3500198200330849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3166229887417507</v>
+        <v>0.3175634208718871</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3852241763712689</v>
+        <v>0.3847485837476449</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>458</v>
@@ -4761,19 +4761,19 @@
         <v>343833</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>315027</v>
+        <v>316851</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>373768</v>
+        <v>376085</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3191292789744509</v>
+        <v>0.3191292789744508</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2923924919852734</v>
+        <v>0.2940855767013811</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3469132904699396</v>
+        <v>0.349063783744262</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>343820</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322118</v>
+        <v>320147</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>364521</v>
+        <v>361742</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7196413533744377</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6742169595899523</v>
+        <v>0.6700916887909695</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7629702596060164</v>
+        <v>0.7571529173457378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>501</v>
@@ -4811,19 +4811,19 @@
         <v>389756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>368646</v>
+        <v>368931</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>409782</v>
+        <v>409218</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.649980179966915</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6147758236287305</v>
+        <v>0.6152514162523551</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6833770112582492</v>
+        <v>0.682436579128113</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>811</v>
@@ -4832,19 +4832,19 @@
         <v>733577</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>703642</v>
+        <v>701325</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>762383</v>
+        <v>760559</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6808707210255491</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.65308670953006</v>
+        <v>0.6509362162557381</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7076075080147264</v>
+        <v>0.7059144232986188</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>182506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159723</v>
+        <v>160132</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>209106</v>
+        <v>206165</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2054500971562869</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1798021947596124</v>
+        <v>0.1802627002856464</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.235393567314263</v>
+        <v>0.2320832173240872</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>491</v>
@@ -4957,19 +4957,19 @@
         <v>307785</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>283378</v>
+        <v>282524</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>332159</v>
+        <v>331898</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.2917355175982368</v>
+        <v>0.2917355175982367</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2686018619198495</v>
+        <v>0.2677916962957165</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3148390513148728</v>
+        <v>0.3145910670057137</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>700</v>
@@ -4978,19 +4978,19 @@
         <v>490291</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>455076</v>
+        <v>455923</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>523638</v>
+        <v>529046</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2522933186536219</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2341722488930967</v>
+        <v>0.2346081453635769</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.269452831538066</v>
+        <v>0.2722357072421259</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>705819</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>679219</v>
+        <v>682160</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>728602</v>
+        <v>728193</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7945499028437131</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7646064326857372</v>
+        <v>0.7679167826759128</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8201978052403878</v>
+        <v>0.8197372997143536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1040</v>
@@ -5028,19 +5028,19 @@
         <v>747228</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>722854</v>
+        <v>723115</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>771635</v>
+        <v>772489</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7082644824017632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6851609486851271</v>
+        <v>0.6854089329942863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7313981380801505</v>
+        <v>0.7322083037042836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1693</v>
@@ -5049,19 +5049,19 @@
         <v>1453047</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1419700</v>
+        <v>1414292</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1488262</v>
+        <v>1487415</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.7477066813463783</v>
+        <v>0.7477066813463781</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7305471684619339</v>
+        <v>0.7277642927578741</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7658277511069033</v>
+        <v>0.7653918546364232</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>234632</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>206330</v>
+        <v>206935</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262670</v>
+        <v>266295</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.2259838174924129</v>
+        <v>0.225983817492413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1987254639843387</v>
+        <v>0.1993073361380231</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2529888151277414</v>
+        <v>0.2564798882949725</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>459</v>
@@ -5174,19 +5174,19 @@
         <v>275634</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>253315</v>
+        <v>252350</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>300903</v>
+        <v>300153</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2662434673351458</v>
+        <v>0.2662434673351459</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2446852381702662</v>
+        <v>0.2437527808944892</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2906516079449706</v>
+        <v>0.2899273810994554</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>712</v>
@@ -5195,19 +5195,19 @@
         <v>510265</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>475015</v>
+        <v>472044</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>544243</v>
+        <v>549846</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2460845153168358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2290842214582877</v>
+        <v>0.2276516266341152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2624708183835114</v>
+        <v>0.265173158791232</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>803637</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>775599</v>
+        <v>771974</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>831939</v>
+        <v>831334</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7740161825075869</v>
+        <v>0.774016182507587</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7470111848722586</v>
+        <v>0.7435201117050276</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8012745360156613</v>
+        <v>0.8006926638619769</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1037</v>
@@ -5245,19 +5245,19 @@
         <v>759635</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>734366</v>
+        <v>735116</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>781954</v>
+        <v>782919</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7337565326648542</v>
+        <v>0.7337565326648544</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7093483920550294</v>
+        <v>0.7100726189005446</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7553147618297339</v>
+        <v>0.756247219105511</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1805</v>
@@ -5266,19 +5266,19 @@
         <v>1563272</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1529294</v>
+        <v>1523691</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1598522</v>
+        <v>1601493</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7539154846831642</v>
+        <v>0.7539154846831643</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7375291816164885</v>
+        <v>0.7348268412087678</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7709157785417126</v>
+        <v>0.7723483733658849</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>278871</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>250319</v>
+        <v>249150</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>308700</v>
+        <v>309572</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.286230810991837</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2569246288771835</v>
+        <v>0.2557252127732977</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3168468596435621</v>
+        <v>0.3177417889443891</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>493</v>
@@ -5391,19 +5391,19 @@
         <v>309200</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>284553</v>
+        <v>284596</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>335626</v>
+        <v>335986</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3440726531062657</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3166459743406553</v>
+        <v>0.3166935994080939</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3734793909158575</v>
+        <v>0.3738798153749675</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>796</v>
@@ -5412,19 +5412,19 @@
         <v>588071</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>550565</v>
+        <v>548026</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>632234</v>
+        <v>625483</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3139837198169654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2939584192316879</v>
+        <v>0.2926029219227833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.337563172854061</v>
+        <v>0.333958610755802</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>695417</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>665588</v>
+        <v>664716</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>723969</v>
+        <v>725138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7137691890081631</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6831531403564379</v>
+        <v>0.6822582110556105</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7430753711228165</v>
+        <v>0.7442747872267022</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>813</v>
@@ -5462,19 +5462,19 @@
         <v>589447</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>563021</v>
+        <v>562661</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>614094</v>
+        <v>614051</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6559273468937343</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.626520609084143</v>
+        <v>0.6261201846250325</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6833540256593449</v>
+        <v>0.6833064005919061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1455</v>
@@ -5483,19 +5483,19 @@
         <v>1284864</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1240701</v>
+        <v>1247452</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1322370</v>
+        <v>1324909</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6860162801830345</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6624368271459389</v>
+        <v>0.6660413892441979</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.706041580768312</v>
+        <v>0.7073970780772166</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>829956</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>779873</v>
+        <v>778081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>886912</v>
+        <v>884132</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2456472325536379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2308240377407761</v>
+        <v>0.2302936801953981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2625050853108841</v>
+        <v>0.2616822862863598</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1767</v>
@@ -5608,19 +5608,19 @@
         <v>1102505</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1056686</v>
+        <v>1056255</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1152253</v>
+        <v>1148495</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3072267179530755</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2944586491945073</v>
+        <v>0.2943387037915374</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3210896376286605</v>
+        <v>0.3200424402782738</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2666</v>
@@ -5629,19 +5629,19 @@
         <v>1932461</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1859090</v>
+        <v>1871498</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1998998</v>
+        <v>2017325</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2773646721495651</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2668337794890575</v>
+        <v>0.2686147561714872</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2869147309799669</v>
+        <v>0.2895451755891452</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2548692</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2491736</v>
+        <v>2494516</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2598775</v>
+        <v>2600567</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.754352767446362</v>
+        <v>0.7543527674463621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7374949146891158</v>
+        <v>0.7383177137136402</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7691759622592238</v>
+        <v>0.769706319804602</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3391</v>
@@ -5679,19 +5679,19 @@
         <v>2486066</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2436318</v>
+        <v>2440076</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2531885</v>
+        <v>2532316</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6927732820469243</v>
+        <v>0.6927732820469246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6789103623713394</v>
+        <v>0.6799575597217261</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.705541350805493</v>
+        <v>0.7056612962084626</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5764</v>
@@ -5700,19 +5700,19 @@
         <v>5034759</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4968222</v>
+        <v>4949895</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5108130</v>
+        <v>5095722</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7226353278504348</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7130852690200331</v>
+        <v>0.7104548244108548</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7331662205109424</v>
+        <v>0.7313852438285128</v>
       </c>
     </row>
     <row r="18">
